--- a/biology/Histoire de la zoologie et de la botanique/Jacqueline_Goy/Jacqueline_Goy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacqueline_Goy/Jacqueline_Goy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacqueline Goy, née en 1936 à Tullins (Isère), est une ichtyologue française, spécialiste mondiale des méduses[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacqueline Goy, née en 1936 à Tullins (Isère), est une ichtyologue française, spécialiste mondiale des méduses,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née de parents instituteurs, ses parents lui ont donné le goût de l'observation de la nature[3].
-Après sa thèse à la station biologique de Villefranche, elle obtient un poste de chercheur en 1968 au muséum national d'histoire naturelle. Recrutée par Théodore Monod, elle y est affectée au laboratoire d'ichtyologie, en tant que spécialiste du zooplancton[4]. Après de nombreuses campagnes océanographiques et un autre poste de chercheur à la Maison des océans, elle prend sa retraite en 2002[1]. Depuis, elle est attachée scientifique à l'Institut océanographique, Fondation Albert Ier, prince de Monaco[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née de parents instituteurs, ses parents lui ont donné le goût de l'observation de la nature.
+Après sa thèse à la station biologique de Villefranche, elle obtient un poste de chercheur en 1968 au muséum national d'histoire naturelle. Recrutée par Théodore Monod, elle y est affectée au laboratoire d'ichtyologie, en tant que spécialiste du zooplancton. Après de nombreuses campagnes océanographiques et un autre poste de chercheur à la Maison des océans, elle prend sa retraite en 2002. Depuis, elle est attachée scientifique à l'Institut océanographique, Fondation Albert Ier, prince de Monaco.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacqueline Goy, Les Méduses de François Péron et de Charles-Alexandre Lesueur. Un autre regard sur l'expédition Baudin"", Comité des travaux historiques et scientifique, 1995, 392 p.
 Jacqueline Goy, Anne Toulemont, Méduses, Musée océanographique, 1997, 159 p.
@@ -577,9 +593,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre du Mérite culturel de Monaco Elle est faite chevalier le 18 novembre 2011[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre du Mérite culturel de Monaco Elle est faite chevalier le 18 novembre 2011</t>
         </is>
       </c>
     </row>
